--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,18 +40,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
     <t>evil</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
@@ -61,9 +61,15 @@
     <t>dangerous</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
@@ -73,22 +79,19 @@
     <t>hate</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>dark</t>
+    <t>fake</t>
   </si>
   <si>
     <t>[UNK]</t>
@@ -124,6 +127,9 @@
     <t>first</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
@@ -133,10 +139,10 @@
     <t>social</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>netflix</t>
@@ -512,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,10 +590,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,16 +608,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -623,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -631,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -649,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4">
         <v>0.9</v>
@@ -681,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -699,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9711538461538461</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -749,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6">
         <v>0.7192982456140351</v>
@@ -781,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9393939393939394</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.7066666666666667</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="L7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -823,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8">
         <v>0.6896551724137931</v>
@@ -902,16 +908,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.6296296296296297</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -923,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -931,13 +937,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.65</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -949,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.5833333333333334</v>
+        <v>0.55</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -973,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -981,13 +987,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6170212765957447</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -999,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.4242424242424243</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1023,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1031,13 +1037,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6159420289855072</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C12">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1049,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.3541666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1073,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1081,13 +1087,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1099,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.3389830508474576</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1123,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1131,13 +1137,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5652173913043478</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1149,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.2622950819672131</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L14">
-        <v>288</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>288</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1173,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>810</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1181,13 +1187,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5428571428571428</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1199,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.1690140845070423</v>
+        <v>0.2522768670309654</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1223,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>59</v>
+        <v>821</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1231,13 +1237,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5416666666666666</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1249,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.1529411764705882</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1273,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1281,13 +1287,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1299,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.05</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1323,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>513</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1331,13 +1337,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4615384615384616</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1349,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>0.03765060240963856</v>
+        <v>0.03518518518518519</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1373,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>639</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1381,13 +1387,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4285714285714285</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1399,19 +1405,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>0.02922077922077922</v>
+        <v>0.03313253012048193</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1423,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>598</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1431,37 +1437,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.05084745762711865</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E20">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>0.02188940092165899</v>
+        <v>0.02922077922077922</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1473,21 +1479,45 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1698</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.0436241610738255</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>285</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>0.01536491677336748</v>
+        <v>0.02476958525345622</v>
       </c>
       <c r="L21">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1499,7 +1529,33 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>769</v>
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22">
+        <v>0.02176696542893726</v>
+      </c>
+      <c r="L22">
+        <v>17</v>
+      </c>
+      <c r="M22">
+        <v>17</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>764</v>
       </c>
     </row>
   </sheetData>
